--- a/data/pca/factorExposure/factorExposure_2015-06-17.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-06-17.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,18 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,61 +723,109 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>0.01831622296288732</v>
+        <v>0.006537837985100788</v>
       </c>
       <c r="C2">
-        <v>-0.02001019759127397</v>
+        <v>0.04831100873751634</v>
       </c>
       <c r="D2">
-        <v>0.1082266514309402</v>
+        <v>-0.1311875270413025</v>
       </c>
       <c r="E2">
-        <v>-0.005411510203394334</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>-0.0303564102088971</v>
+      </c>
+      <c r="F2">
+        <v>-0.02942130934062312</v>
+      </c>
+      <c r="G2">
+        <v>-0.128392939623043</v>
+      </c>
+      <c r="H2">
+        <v>-0.02653323730038673</v>
+      </c>
+      <c r="I2">
+        <v>0.01335851425462683</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>-0.006109406339957189</v>
+        <v>-0.005221744533729624</v>
       </c>
       <c r="C3">
-        <v>-0.005379257402054783</v>
+        <v>-0.0001176547273927437</v>
       </c>
       <c r="D3">
-        <v>-0.005513704982284135</v>
+        <v>-0.0007287717109003137</v>
       </c>
       <c r="E3">
-        <v>-0.0007515147802493866</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>0.005036039351867013</v>
+      </c>
+      <c r="F3">
+        <v>-0.0001714982969082742</v>
+      </c>
+      <c r="G3">
+        <v>-0.0001761155403807252</v>
+      </c>
+      <c r="H3">
+        <v>0.01385043774954738</v>
+      </c>
+      <c r="I3">
+        <v>-0.005873491246155039</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>0.04661937251490211</v>
+        <v>0.01680168049213658</v>
       </c>
       <c r="C4">
-        <v>-0.06949853774355505</v>
+        <v>0.1009842210622285</v>
       </c>
       <c r="D4">
-        <v>0.134421697332164</v>
+        <v>-0.1357892654641605</v>
       </c>
       <c r="E4">
-        <v>-0.07984324930122938</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>-0.01562259548191606</v>
+      </c>
+      <c r="F4">
+        <v>-0.09309123532193574</v>
+      </c>
+      <c r="G4">
+        <v>-0.01118691001332446</v>
+      </c>
+      <c r="H4">
+        <v>-0.05157497654023117</v>
+      </c>
+      <c r="I4">
+        <v>-0.05695249446742497</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,197 +839,341 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>0.02283652893372928</v>
+        <v>0.02537739409647247</v>
       </c>
       <c r="C6">
-        <v>-0.01235871460777962</v>
+        <v>0.03192791882268838</v>
       </c>
       <c r="D6">
-        <v>0.1380845296188621</v>
+        <v>-0.1221741680081889</v>
       </c>
       <c r="E6">
-        <v>-0.03414585360059217</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>-0.06453263310765099</v>
+      </c>
+      <c r="F6">
+        <v>-0.04756668547023673</v>
+      </c>
+      <c r="G6">
+        <v>-0.007433870554265212</v>
+      </c>
+      <c r="H6">
+        <v>-0.05899658304567646</v>
+      </c>
+      <c r="I6">
+        <v>0.002382200187811116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>0.005529151967455962</v>
+        <v>0.006534812506568998</v>
       </c>
       <c r="C7">
-        <v>-0.02175935703913539</v>
+        <v>0.03292217402738922</v>
       </c>
       <c r="D7">
-        <v>0.1113571574720435</v>
+        <v>-0.0954185906306111</v>
       </c>
       <c r="E7">
-        <v>-0.001491580446592279</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>-0.06051599810184439</v>
+      </c>
+      <c r="F7">
+        <v>-0.00784929938985689</v>
+      </c>
+      <c r="G7">
+        <v>-0.004471335140956429</v>
+      </c>
+      <c r="H7">
+        <v>-0.07600090458228415</v>
+      </c>
+      <c r="I7">
+        <v>0.007907656180914553</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>-0.003781209078135217</v>
+        <v>-0.01234939995136581</v>
       </c>
       <c r="C8">
-        <v>-0.02533783704770618</v>
+        <v>0.0302429021064125</v>
       </c>
       <c r="D8">
-        <v>0.08030527010297396</v>
+        <v>-0.07269083000244135</v>
       </c>
       <c r="E8">
-        <v>-0.02459617536994213</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>-0.04174458799301489</v>
+      </c>
+      <c r="F8">
+        <v>-0.05089044675589408</v>
+      </c>
+      <c r="G8">
+        <v>-0.06116744211313074</v>
+      </c>
+      <c r="H8">
+        <v>0.005275760589594749</v>
+      </c>
+      <c r="I8">
+        <v>0.02614151710977106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>0.03921728760223656</v>
+        <v>0.01190609128516794</v>
       </c>
       <c r="C9">
-        <v>-0.0592150871358108</v>
+        <v>0.08418962205196558</v>
       </c>
       <c r="D9">
-        <v>0.1332392293150785</v>
+        <v>-0.1177980662045555</v>
       </c>
       <c r="E9">
-        <v>-0.0626542807454563</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>-0.0169461997911758</v>
+      </c>
+      <c r="F9">
+        <v>-0.06144739195296814</v>
+      </c>
+      <c r="G9">
+        <v>0.004268747860248012</v>
+      </c>
+      <c r="H9">
+        <v>-0.06867312928000933</v>
+      </c>
+      <c r="I9">
+        <v>-0.02071574856125985</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>0.1577387111144918</v>
+        <v>0.2368556983478136</v>
       </c>
       <c r="C10">
-        <v>0.1772963933497594</v>
+        <v>-0.09523647414014623</v>
       </c>
       <c r="D10">
-        <v>0.008960702770403832</v>
+        <v>0.006000567451385634</v>
       </c>
       <c r="E10">
-        <v>-0.04676375068370506</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>0.01280141636548373</v>
+      </c>
+      <c r="F10">
+        <v>-0.04910818510148388</v>
+      </c>
+      <c r="G10">
+        <v>-0.003841609645582736</v>
+      </c>
+      <c r="H10">
+        <v>0.0565125044612934</v>
+      </c>
+      <c r="I10">
+        <v>0.1048385845116191</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>0.02081423729987216</v>
+        <v>0.007980696848803783</v>
       </c>
       <c r="C11">
-        <v>-0.03936272467174007</v>
+        <v>0.05156181501358962</v>
       </c>
       <c r="D11">
-        <v>0.04972833036641525</v>
+        <v>-0.04166005106294846</v>
       </c>
       <c r="E11">
-        <v>0.01636327750401631</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>-0.02266432647043642</v>
+      </c>
+      <c r="F11">
+        <v>0.01204706707108051</v>
+      </c>
+      <c r="G11">
+        <v>-0.003181006081970811</v>
+      </c>
+      <c r="H11">
+        <v>-0.04752885369853165</v>
+      </c>
+      <c r="I11">
+        <v>-0.052520900063568</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>0.02181742905574272</v>
+        <v>0.007818974413924196</v>
       </c>
       <c r="C12">
-        <v>-0.03945065998243279</v>
+        <v>0.04849081210293284</v>
       </c>
       <c r="D12">
-        <v>0.06267876190940672</v>
+        <v>-0.04807925102973669</v>
       </c>
       <c r="E12">
-        <v>0.006690452093358653</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>-0.0187208531534882</v>
+      </c>
+      <c r="F12">
+        <v>0.01743583231495485</v>
+      </c>
+      <c r="G12">
+        <v>0.01233936564093533</v>
+      </c>
+      <c r="H12">
+        <v>-0.07405716766646711</v>
+      </c>
+      <c r="I12">
+        <v>-0.03193167854380587</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>0.005653411495234108</v>
+        <v>-0.006035851962191552</v>
       </c>
       <c r="C13">
-        <v>-0.02283218106944633</v>
+        <v>0.04179232183295737</v>
       </c>
       <c r="D13">
-        <v>0.1479292416280562</v>
+        <v>-0.1459187570892172</v>
       </c>
       <c r="E13">
-        <v>-0.03159215659871369</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>-0.04532960482058196</v>
+      </c>
+      <c r="F13">
+        <v>-0.03335158531792601</v>
+      </c>
+      <c r="G13">
+        <v>-0.03318257234231878</v>
+      </c>
+      <c r="H13">
+        <v>-0.05831848948868089</v>
+      </c>
+      <c r="I13">
+        <v>0.09972102082705754</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>-0.003414052298574924</v>
+        <v>-0.001037268792449103</v>
       </c>
       <c r="C14">
-        <v>-0.01726231415309285</v>
+        <v>0.02593974926220381</v>
       </c>
       <c r="D14">
-        <v>0.09951094255374338</v>
+        <v>-0.09885880447139403</v>
       </c>
       <c r="E14">
-        <v>-0.009614470415943776</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>-0.05145129395141691</v>
+      </c>
+      <c r="F14">
+        <v>-0.03546802087312723</v>
+      </c>
+      <c r="G14">
+        <v>-0.04034746052933486</v>
+      </c>
+      <c r="H14">
+        <v>-0.1242439612066692</v>
+      </c>
+      <c r="I14">
+        <v>0.01465120409291857</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B15">
-        <v>-0.001435196825224653</v>
+        <v>-0.001947068869522378</v>
       </c>
       <c r="C15">
-        <v>-0.01038439331850469</v>
+        <v>0.02006638148210396</v>
       </c>
       <c r="D15">
-        <v>0.0276923022486966</v>
+        <v>-0.05395838295044931</v>
       </c>
       <c r="E15">
-        <v>0.003444873498263044</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>-0.01266574370610702</v>
+      </c>
+      <c r="F15">
+        <v>-0.006968943252459338</v>
+      </c>
+      <c r="G15">
+        <v>-0.02683764667828458</v>
+      </c>
+      <c r="H15">
+        <v>-0.0234990119149295</v>
+      </c>
+      <c r="I15">
+        <v>-0.02069528587542856</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>0.02091649063132511</v>
+        <v>0.008466359241002029</v>
       </c>
       <c r="C16">
-        <v>-0.03730762885905151</v>
+        <v>0.04772487773936615</v>
       </c>
       <c r="D16">
-        <v>0.05641797391881937</v>
+        <v>-0.043078509168147</v>
       </c>
       <c r="E16">
-        <v>0.009549058630726056</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>-0.02382730814102398</v>
+      </c>
+      <c r="F16">
+        <v>0.009317975636987373</v>
+      </c>
+      <c r="G16">
+        <v>0.00831164026474485</v>
+      </c>
+      <c r="H16">
+        <v>-0.05463435447620972</v>
+      </c>
+      <c r="I16">
+        <v>-0.04919783091585047</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1187,22 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,146 +1216,254 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>0.006082467255231255</v>
+        <v>0.0001580394835636173</v>
       </c>
       <c r="C19">
-        <v>-0.0192439197012105</v>
+        <v>0.01837833700835582</v>
       </c>
       <c r="D19">
-        <v>0.1066215871444626</v>
+        <v>-0.06830089100863639</v>
       </c>
       <c r="E19">
-        <v>-0.03974362270073614</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>0.008436616647842532</v>
+      </c>
+      <c r="F19">
+        <v>-0.01432975226246934</v>
+      </c>
+      <c r="G19">
+        <v>-0.02337959285060617</v>
+      </c>
+      <c r="H19">
+        <v>-0.06133781276416513</v>
+      </c>
+      <c r="I19">
+        <v>0.04748190096774728</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>0.004432958566283894</v>
+        <v>0.003401097720950079</v>
       </c>
       <c r="C20">
-        <v>-0.02385556896084104</v>
+        <v>0.03677710467748591</v>
       </c>
       <c r="D20">
-        <v>0.08903801630938489</v>
+        <v>-0.09275621547764952</v>
       </c>
       <c r="E20">
-        <v>-0.03339224405135009</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>-0.02528605002221498</v>
+      </c>
+      <c r="F20">
+        <v>-0.03041351563522924</v>
+      </c>
+      <c r="G20">
+        <v>-0.006773451950262772</v>
+      </c>
+      <c r="H20">
+        <v>-0.05977938735111313</v>
+      </c>
+      <c r="I20">
+        <v>-0.01903587339211508</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>0.008352780713339948</v>
+        <v>0.001524555851043054</v>
       </c>
       <c r="C21">
-        <v>-0.02913543499844775</v>
+        <v>0.03938043700686477</v>
       </c>
       <c r="D21">
-        <v>0.1666549981953402</v>
+        <v>-0.1276970704666103</v>
       </c>
       <c r="E21">
-        <v>-0.07108206804974464</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>-0.03474219318058502</v>
+      </c>
+      <c r="F21">
+        <v>-0.09354831813277367</v>
+      </c>
+      <c r="G21">
+        <v>-0.05653609679736896</v>
+      </c>
+      <c r="H21">
+        <v>-0.1887115142778677</v>
+      </c>
+      <c r="I21">
+        <v>0.1573795364153988</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B22">
-        <v>0.001300155291090932</v>
+        <v>-0.01311826357933576</v>
       </c>
       <c r="C22">
-        <v>-0.0611621030496375</v>
+        <v>0.08197800427979517</v>
       </c>
       <c r="D22">
-        <v>0.2381714051049331</v>
+        <v>-0.2701603416212193</v>
       </c>
       <c r="E22">
-        <v>0.02364728046170795</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>-0.06815191444559932</v>
+      </c>
+      <c r="F22">
+        <v>-0.02780109717059627</v>
+      </c>
+      <c r="G22">
+        <v>-0.2578671707607682</v>
+      </c>
+      <c r="H22">
+        <v>0.4533904373151095</v>
+      </c>
+      <c r="I22">
+        <v>-0.1192697850691966</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B23">
-        <v>0.001565189761863099</v>
+        <v>-0.01275481398395326</v>
       </c>
       <c r="C23">
-        <v>-0.0616483022934667</v>
+        <v>0.08301685090166094</v>
       </c>
       <c r="D23">
-        <v>0.2377449725554057</v>
+        <v>-0.2710780208937297</v>
       </c>
       <c r="E23">
-        <v>0.02348535909703149</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>-0.06505848660185214</v>
+      </c>
+      <c r="F23">
+        <v>-0.02793948508686894</v>
+      </c>
+      <c r="G23">
+        <v>-0.257789155417663</v>
+      </c>
+      <c r="H23">
+        <v>0.453099682424836</v>
+      </c>
+      <c r="I23">
+        <v>-0.1199834808720306</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>0.02746824424620857</v>
+        <v>0.007984560508433157</v>
       </c>
       <c r="C24">
-        <v>-0.05560959822313801</v>
+        <v>0.06430896159691823</v>
       </c>
       <c r="D24">
-        <v>0.06914770088086331</v>
+        <v>-0.04999582161693058</v>
       </c>
       <c r="E24">
-        <v>0.005320931562913404</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>-0.03234361191667872</v>
+      </c>
+      <c r="F24">
+        <v>0.00508137517377873</v>
+      </c>
+      <c r="G24">
+        <v>-0.005635191427683445</v>
+      </c>
+      <c r="H24">
+        <v>-0.07740770263981869</v>
+      </c>
+      <c r="I24">
+        <v>-0.04363780795384479</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>0.02853659085330231</v>
+        <v>0.01177895578808896</v>
       </c>
       <c r="C25">
-        <v>-0.04659493050337817</v>
+        <v>0.05929892171644546</v>
       </c>
       <c r="D25">
-        <v>0.06088737412590599</v>
+        <v>-0.04937423300604379</v>
       </c>
       <c r="E25">
-        <v>0.001335339912927204</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>-0.01711685041926853</v>
+      </c>
+      <c r="F25">
+        <v>0.00695386821408144</v>
+      </c>
+      <c r="G25">
+        <v>0.005632412249216619</v>
+      </c>
+      <c r="H25">
+        <v>-0.04631546134565371</v>
+      </c>
+      <c r="I25">
+        <v>-0.03184599499009737</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>0.008733578570611331</v>
+        <v>0.006644457655954887</v>
       </c>
       <c r="C26">
-        <v>-0.01331745853626186</v>
+        <v>0.02451584001301322</v>
       </c>
       <c r="D26">
-        <v>0.08017391938257641</v>
+        <v>-0.06356556051697186</v>
       </c>
       <c r="E26">
-        <v>-0.01910628618252999</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>-0.04640881889870063</v>
+      </c>
+      <c r="F26">
+        <v>-0.03059607277958443</v>
+      </c>
+      <c r="G26">
+        <v>-0.01409886496044612</v>
+      </c>
+      <c r="H26">
+        <v>-0.09218289151314894</v>
+      </c>
+      <c r="I26">
+        <v>0.0383049768798443</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,163 +1477,283 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>0.2429928727942726</v>
+        <v>0.3217479035068629</v>
       </c>
       <c r="C28">
-        <v>0.2168127895239246</v>
+        <v>-0.09203344968127349</v>
       </c>
       <c r="D28">
-        <v>0.01850768095342408</v>
+        <v>0.004155637668570346</v>
       </c>
       <c r="E28">
-        <v>-0.06533533725522962</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>0.04657448763618921</v>
+      </c>
+      <c r="F28">
+        <v>-0.05093312187382455</v>
+      </c>
+      <c r="G28">
+        <v>-0.03896102110596052</v>
+      </c>
+      <c r="H28">
+        <v>0.01038091586364562</v>
+      </c>
+      <c r="I28">
+        <v>0.1461361174750228</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>0.0001424614443013662</v>
+        <v>-0.002639709636112878</v>
       </c>
       <c r="C29">
-        <v>-0.021037159331851</v>
+        <v>0.02919782940359556</v>
       </c>
       <c r="D29">
-        <v>0.09691330554199774</v>
+        <v>-0.09481685634038488</v>
       </c>
       <c r="E29">
-        <v>-0.01436876139177016</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>-0.05775472564963852</v>
+      </c>
+      <c r="F29">
+        <v>-0.03850358318807066</v>
+      </c>
+      <c r="G29">
+        <v>-0.0273031336587912</v>
+      </c>
+      <c r="H29">
+        <v>-0.1305275387854173</v>
+      </c>
+      <c r="I29">
+        <v>0.0124895784864581</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>0.02531779883490394</v>
+        <v>0.01314151289987982</v>
       </c>
       <c r="C30">
-        <v>-0.05727063694689655</v>
+        <v>0.08325621998054651</v>
       </c>
       <c r="D30">
-        <v>0.1668016199921996</v>
+        <v>-0.1564140309361374</v>
       </c>
       <c r="E30">
-        <v>-0.02103512142930183</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>-0.06309762173371862</v>
+      </c>
+      <c r="F30">
+        <v>-0.03790050001297894</v>
+      </c>
+      <c r="G30">
+        <v>-0.0366718598952355</v>
+      </c>
+      <c r="H30">
+        <v>-0.05562759831567989</v>
+      </c>
+      <c r="I30">
+        <v>-0.07327853179781581</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>0.0445366568009095</v>
+        <v>0.007527504857110843</v>
       </c>
       <c r="C31">
-        <v>-0.08252629435538843</v>
+        <v>0.09201509675862327</v>
       </c>
       <c r="D31">
-        <v>0.06896543446680693</v>
+        <v>-0.03875022291829915</v>
       </c>
       <c r="E31">
-        <v>-0.01182759648586851</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>-0.0195199489331778</v>
+      </c>
+      <c r="F31">
+        <v>-0.01633896629237815</v>
+      </c>
+      <c r="G31">
+        <v>-0.01557196378928582</v>
+      </c>
+      <c r="H31">
+        <v>-0.04627587737031127</v>
+      </c>
+      <c r="I31">
+        <v>0.05828799603463458</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>0.02139289678839717</v>
+        <v>0.009798840088715725</v>
       </c>
       <c r="C32">
-        <v>-0.03128006432228241</v>
+        <v>0.04508373157802776</v>
       </c>
       <c r="D32">
-        <v>0.1034720701410444</v>
+        <v>-0.1080550670615572</v>
       </c>
       <c r="E32">
-        <v>-0.0660620463337168</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>-0.01348833285230621</v>
+      </c>
+      <c r="F32">
+        <v>-0.04937209212577134</v>
+      </c>
+      <c r="G32">
+        <v>-0.02648372449123825</v>
+      </c>
+      <c r="H32">
+        <v>-0.03655661881196442</v>
+      </c>
+      <c r="I32">
+        <v>0.0798004456742802</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>0.01360739981463964</v>
+        <v>0.004992645615052793</v>
       </c>
       <c r="C33">
-        <v>-0.0401663292548053</v>
+        <v>0.05542634816400023</v>
       </c>
       <c r="D33">
-        <v>0.140030690704416</v>
+        <v>-0.1206345401308617</v>
       </c>
       <c r="E33">
-        <v>-0.0370873735039097</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>-0.03353041829832555</v>
+      </c>
+      <c r="F33">
+        <v>-0.02802240603084786</v>
+      </c>
+      <c r="G33">
+        <v>-0.01420668654794937</v>
+      </c>
+      <c r="H33">
+        <v>-0.06592631465616371</v>
+      </c>
+      <c r="I33">
+        <v>0.009312931945450862</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>0.02479220336729694</v>
+        <v>0.005538176229202068</v>
       </c>
       <c r="C34">
-        <v>-0.0578276229675363</v>
+        <v>0.06087653263322043</v>
       </c>
       <c r="D34">
-        <v>0.05159624832462421</v>
+        <v>-0.02923062263071823</v>
       </c>
       <c r="E34">
-        <v>0.04711899864324174</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>-0.02978051551150969</v>
+      </c>
+      <c r="F34">
+        <v>0.03776399633505375</v>
+      </c>
+      <c r="G34">
+        <v>-0.00239318309990612</v>
+      </c>
+      <c r="H34">
+        <v>-0.06119352871513901</v>
+      </c>
+      <c r="I34">
+        <v>-0.01929626841282995</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.001879896224749102</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>0.006943049992935726</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>-0.02784650347959393</v>
       </c>
       <c r="E35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>-0.005477606456000261</v>
+      </c>
+      <c r="F35">
+        <v>-0.01675360606765783</v>
+      </c>
+      <c r="G35">
+        <v>-0.01503273025126457</v>
+      </c>
+      <c r="H35">
+        <v>-0.03732946775775084</v>
+      </c>
+      <c r="I35">
+        <v>-0.0197026669997189</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>0.008481759125425597</v>
+        <v>0.007120155130581061</v>
       </c>
       <c r="C36">
-        <v>-0.004994456922959615</v>
+        <v>0.01793008845616065</v>
       </c>
       <c r="D36">
-        <v>0.08741526078798229</v>
+        <v>-0.07076136584019733</v>
       </c>
       <c r="E36">
-        <v>-0.04156355926605352</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>-0.02799370997153662</v>
+      </c>
+      <c r="F36">
+        <v>-0.04330719111264757</v>
+      </c>
+      <c r="G36">
+        <v>-0.01458597758540151</v>
+      </c>
+      <c r="H36">
+        <v>-0.06248059073672778</v>
+      </c>
+      <c r="I36">
+        <v>0.02693090783391773</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,78 +1767,138 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>0.006324430551157854</v>
+        <v>0.01219816681658187</v>
       </c>
       <c r="C38">
-        <v>-0.005509965734711704</v>
+        <v>0.0153636763741141</v>
       </c>
       <c r="D38">
-        <v>0.0845789787539067</v>
+        <v>-0.08277839057347694</v>
       </c>
       <c r="E38">
-        <v>-0.009296635296341841</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>-0.004458761821172737</v>
+      </c>
+      <c r="F38">
+        <v>-0.003956172994990965</v>
+      </c>
+      <c r="G38">
+        <v>-0.03899018697988432</v>
+      </c>
+      <c r="H38">
+        <v>-0.05644589724171914</v>
+      </c>
+      <c r="I38">
+        <v>0.03185695455311043</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>0.01929954075802968</v>
+        <v>0.003215948316577681</v>
       </c>
       <c r="C39">
-        <v>-0.05558982637301011</v>
+        <v>0.07301644967020626</v>
       </c>
       <c r="D39">
-        <v>0.114199666976038</v>
+        <v>-0.09762498967801843</v>
       </c>
       <c r="E39">
-        <v>0.01956294680948989</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>-0.06046187565442196</v>
+      </c>
+      <c r="F39">
+        <v>0.003046366610707808</v>
+      </c>
+      <c r="G39">
+        <v>-0.007784571575856782</v>
+      </c>
+      <c r="H39">
+        <v>-0.105137616562096</v>
+      </c>
+      <c r="I39">
+        <v>-0.07345664462787846</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>0.01102366112831802</v>
+        <v>0.00836127199832567</v>
       </c>
       <c r="C40">
-        <v>-0.01580569994679921</v>
+        <v>0.02459206809953848</v>
       </c>
       <c r="D40">
-        <v>0.1193191293713383</v>
+        <v>-0.09294785790934834</v>
       </c>
       <c r="E40">
-        <v>0.02002624184903324</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>-0.04862455751571401</v>
+      </c>
+      <c r="F40">
+        <v>0.02053211543084525</v>
+      </c>
+      <c r="G40">
+        <v>-0.07245712308309893</v>
+      </c>
+      <c r="H40">
+        <v>-0.06011794447033971</v>
+      </c>
+      <c r="I40">
+        <v>0.06849874389893965</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>0.01165021673026703</v>
+        <v>0.01300571298879739</v>
       </c>
       <c r="C41">
-        <v>-0.005089527199734537</v>
+        <v>0.01473772348680818</v>
       </c>
       <c r="D41">
-        <v>0.04998765698458744</v>
+        <v>-0.03968762498548759</v>
       </c>
       <c r="E41">
-        <v>-0.03127305200935049</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>0.007428228854720177</v>
+      </c>
+      <c r="F41">
+        <v>-0.02452224498356551</v>
+      </c>
+      <c r="G41">
+        <v>-0.02310893250959129</v>
+      </c>
+      <c r="H41">
+        <v>-0.03855112326132754</v>
+      </c>
+      <c r="I41">
+        <v>0.03335648910914937</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1408,44 +1912,80 @@
       <c r="E42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>0.005308110733657936</v>
+        <v>0.006860868983082809</v>
       </c>
       <c r="C43">
-        <v>-0.005732087167919644</v>
+        <v>0.0127972678217066</v>
       </c>
       <c r="D43">
-        <v>0.06008302618083982</v>
+        <v>-0.04700227845439078</v>
       </c>
       <c r="E43">
-        <v>-0.02009850818915501</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>-0.008859332871678003</v>
+      </c>
+      <c r="F43">
+        <v>-0.01957860744574119</v>
+      </c>
+      <c r="G43">
+        <v>-0.02352290662983959</v>
+      </c>
+      <c r="H43">
+        <v>-0.05453626852565212</v>
+      </c>
+      <c r="I43">
+        <v>0.0170721189011514</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>0.01682642178615245</v>
+        <v>0.01034276233883315</v>
       </c>
       <c r="C44">
-        <v>-0.02415837195106637</v>
+        <v>0.04273282052047358</v>
       </c>
       <c r="D44">
-        <v>0.1125035813314571</v>
+        <v>-0.111303761061115</v>
       </c>
       <c r="E44">
-        <v>-0.0438564205270432</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>-0.04517063191407372</v>
+      </c>
+      <c r="F44">
+        <v>-0.03612585054562714</v>
+      </c>
+      <c r="G44">
+        <v>-0.03386665687308336</v>
+      </c>
+      <c r="H44">
+        <v>-0.04926508115604259</v>
+      </c>
+      <c r="I44">
+        <v>-0.05878444899887506</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1999,109 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>0.007626087136076374</v>
+        <v>-0.001355124722210795</v>
       </c>
       <c r="C46">
-        <v>-0.02719350964795015</v>
+        <v>0.03783195634908582</v>
       </c>
       <c r="D46">
-        <v>0.09052536221142563</v>
+        <v>-0.07885182213867649</v>
       </c>
       <c r="E46">
-        <v>-0.01857413833096556</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>-0.04466505569851745</v>
+      </c>
+      <c r="F46">
+        <v>-0.03400662970610234</v>
+      </c>
+      <c r="G46">
+        <v>-0.03665240264915851</v>
+      </c>
+      <c r="H46">
+        <v>-0.1327275743796387</v>
+      </c>
+      <c r="I46">
+        <v>0.003405826728725768</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>0.08728830741611597</v>
+        <v>0.03231234369918903</v>
       </c>
       <c r="C47">
-        <v>-0.1020978562030185</v>
+        <v>0.1252320844719333</v>
       </c>
       <c r="D47">
-        <v>0.05844627353344284</v>
+        <v>-0.02332221000015575</v>
       </c>
       <c r="E47">
-        <v>-0.02787427613840612</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>0.01055791995500823</v>
+      </c>
+      <c r="F47">
+        <v>0.00412494214187142</v>
+      </c>
+      <c r="G47">
+        <v>0.02500106663239284</v>
+      </c>
+      <c r="H47">
+        <v>-0.05994474681391196</v>
+      </c>
+      <c r="I47">
+        <v>0.127597723711114</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>0.008711308750886819</v>
+        <v>0.006104991627659811</v>
       </c>
       <c r="C48">
-        <v>-0.01511254444796614</v>
+        <v>0.02831652176709984</v>
       </c>
       <c r="D48">
-        <v>0.09386980584994939</v>
+        <v>-0.07547794799550356</v>
       </c>
       <c r="E48">
-        <v>-0.05419909551187316</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>-0.02458326289982817</v>
+      </c>
+      <c r="F48">
+        <v>-0.05113802525295091</v>
+      </c>
+      <c r="G48">
+        <v>-0.02732112737358267</v>
+      </c>
+      <c r="H48">
+        <v>-0.09954047541469135</v>
+      </c>
+      <c r="I48">
+        <v>0.008647844155210809</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +2115,80 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>0.04254513392864794</v>
+        <v>0.0122925969014259</v>
       </c>
       <c r="C50">
-        <v>-0.05853704588017023</v>
+        <v>0.0741173951198377</v>
       </c>
       <c r="D50">
-        <v>0.06858547164965194</v>
+        <v>-0.04478600350581372</v>
       </c>
       <c r="E50">
-        <v>-0.008006083310781733</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>-0.01284552936431576</v>
+      </c>
+      <c r="F50">
+        <v>-0.01022161760716359</v>
+      </c>
+      <c r="G50">
+        <v>-0.02855230320315381</v>
+      </c>
+      <c r="H50">
+        <v>-0.03050216060946521</v>
+      </c>
+      <c r="I50">
+        <v>0.09911197937776908</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>0.001545346342277769</v>
+        <v>-0.0003587758435655027</v>
       </c>
       <c r="C51">
-        <v>-0.003097959523778728</v>
+        <v>0.01446757951568699</v>
       </c>
       <c r="D51">
-        <v>0.05606399518261881</v>
+        <v>-0.05748970066233925</v>
       </c>
       <c r="E51">
-        <v>-0.0009320224201359137</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>-0.04681817785873179</v>
+      </c>
+      <c r="F51">
+        <v>-0.03571512212107415</v>
+      </c>
+      <c r="G51">
+        <v>-0.03111204567962046</v>
+      </c>
+      <c r="H51">
+        <v>-0.0325236086854907</v>
+      </c>
+      <c r="I51">
+        <v>0.008514584086762674</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,78 +2202,138 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>0.1140146669817321</v>
+        <v>0.05527138011915658</v>
       </c>
       <c r="C53">
-        <v>-0.1180962737742154</v>
+        <v>0.1575011797236358</v>
       </c>
       <c r="D53">
-        <v>0.01997272439047296</v>
+        <v>0.01134084088868605</v>
       </c>
       <c r="E53">
-        <v>-0.05896140616533627</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>0.02731174274283877</v>
+      </c>
+      <c r="F53">
+        <v>-0.0507318996610547</v>
+      </c>
+      <c r="G53">
+        <v>-0.002865084481260536</v>
+      </c>
+      <c r="H53">
+        <v>-0.001373313261194276</v>
+      </c>
+      <c r="I53">
+        <v>0.0644720607349137</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>0.01541225870974663</v>
+        <v>0.009453809424838124</v>
       </c>
       <c r="C54">
-        <v>-0.02125906344307355</v>
+        <v>0.03808572263856248</v>
       </c>
       <c r="D54">
-        <v>0.09853220274607356</v>
+        <v>-0.08212465688797378</v>
       </c>
       <c r="E54">
-        <v>-0.0004792784316598322</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>-0.02040625870201042</v>
+      </c>
+      <c r="F54">
+        <v>-0.001555329442300102</v>
+      </c>
+      <c r="G54">
+        <v>-0.03876756707555446</v>
+      </c>
+      <c r="H54">
+        <v>-0.08445282669991171</v>
+      </c>
+      <c r="I54">
+        <v>0.02537067587207583</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>0.1009441439354675</v>
+        <v>0.04174314755806676</v>
       </c>
       <c r="C55">
-        <v>-0.09961243362529311</v>
+        <v>0.1301709510354543</v>
       </c>
       <c r="D55">
-        <v>0.008494407915785141</v>
+        <v>0.02817716775160664</v>
       </c>
       <c r="E55">
-        <v>-0.01266394781130294</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>-0.003702910417853315</v>
+      </c>
+      <c r="F55">
+        <v>-0.01434713682602945</v>
+      </c>
+      <c r="G55">
+        <v>-0.01389422616100642</v>
+      </c>
+      <c r="H55">
+        <v>-0.002882151586556971</v>
+      </c>
+      <c r="I55">
+        <v>0.07316479797992978</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>0.1399696580982803</v>
+        <v>0.05832786153438878</v>
       </c>
       <c r="C56">
-        <v>-0.1338145335774054</v>
+        <v>0.1893134898383705</v>
       </c>
       <c r="D56">
-        <v>0.003804634389755643</v>
+        <v>0.0230837005529246</v>
       </c>
       <c r="E56">
-        <v>-0.01249079830258761</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>0.02912902757422535</v>
+      </c>
+      <c r="F56">
+        <v>-0.01862248443018071</v>
+      </c>
+      <c r="G56">
+        <v>-0.05846070994094783</v>
+      </c>
+      <c r="H56">
+        <v>0.01458328435927643</v>
+      </c>
+      <c r="I56">
+        <v>0.09359242420542502</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1663,78 +2347,138 @@
       <c r="E57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>-0.004518424316096844</v>
+        <v>0.001754642195410169</v>
       </c>
       <c r="C58">
-        <v>-0.01037685696133961</v>
+        <v>0.04773106527715705</v>
       </c>
       <c r="D58">
-        <v>0.2149238417392046</v>
+        <v>-0.2795911442589284</v>
       </c>
       <c r="E58">
-        <v>-0.07941970345986664</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>-0.0240657287233832</v>
+      </c>
+      <c r="F58">
+        <v>-0.1094232831907943</v>
+      </c>
+      <c r="G58">
+        <v>-0.1041749075354882</v>
+      </c>
+      <c r="H58">
+        <v>0.116133233151711</v>
+      </c>
+      <c r="I58">
+        <v>-0.08147019229824488</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>0.1687588286730546</v>
+        <v>0.2490028319400881</v>
       </c>
       <c r="C59">
-        <v>0.1564995256655296</v>
+        <v>-0.06420274030037665</v>
       </c>
       <c r="D59">
-        <v>0.0455130849439258</v>
+        <v>-0.05979555291987542</v>
       </c>
       <c r="E59">
-        <v>-0.03592194242475493</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>0.02154068022319618</v>
+      </c>
+      <c r="F59">
+        <v>-0.02322916288329444</v>
+      </c>
+      <c r="G59">
+        <v>-0.00940346045561578</v>
+      </c>
+      <c r="H59">
+        <v>0.004482001150583539</v>
+      </c>
+      <c r="I59">
+        <v>0.06235303941931204</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>0.1948658651637999</v>
+        <v>0.1496997231159854</v>
       </c>
       <c r="C60">
-        <v>-0.09050880479779409</v>
+        <v>0.1712807628749691</v>
       </c>
       <c r="D60">
-        <v>0.1900452372070281</v>
+        <v>-0.08951393487882027</v>
       </c>
       <c r="E60">
-        <v>0.1732822161985021</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>-0.1725271408139619</v>
+      </c>
+      <c r="F60">
+        <v>0.2250845468706718</v>
+      </c>
+      <c r="G60">
+        <v>0.2699230520249077</v>
+      </c>
+      <c r="H60">
+        <v>0.159179971043588</v>
+      </c>
+      <c r="I60">
+        <v>0.01742337101489819</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>0.02927521792620942</v>
+        <v>0.01023491639945394</v>
       </c>
       <c r="C61">
-        <v>-0.0518335573680638</v>
+        <v>0.06996273521896905</v>
       </c>
       <c r="D61">
-        <v>0.1004871951530543</v>
+        <v>-0.07745282952353977</v>
       </c>
       <c r="E61">
-        <v>0.009042806856426949</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>-0.04148293427938848</v>
+      </c>
+      <c r="F61">
+        <v>0.01397426599059265</v>
+      </c>
+      <c r="G61">
+        <v>0.007445402066023465</v>
+      </c>
+      <c r="H61">
+        <v>-0.0950440780285747</v>
+      </c>
+      <c r="I61">
+        <v>-0.026079910499139</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2492,225 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>0.009623265890363553</v>
+        <v>0.005552070511406808</v>
       </c>
       <c r="C63">
-        <v>-0.02525947941350924</v>
+        <v>0.03309107036354714</v>
       </c>
       <c r="D63">
-        <v>0.09316151342131541</v>
+        <v>-0.06328672177656511</v>
       </c>
       <c r="E63">
-        <v>-0.01319056749546232</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>-0.05562607340435697</v>
+      </c>
+      <c r="F63">
+        <v>-0.02848102505262031</v>
+      </c>
+      <c r="G63">
+        <v>-0.02433276216372149</v>
+      </c>
+      <c r="H63">
+        <v>-0.06573061250444817</v>
+      </c>
+      <c r="I63">
+        <v>-0.00378142736697652</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>0.06155144451719099</v>
+        <v>0.01884175662163779</v>
       </c>
       <c r="C64">
-        <v>-0.07856157648985522</v>
+        <v>0.1047892981063963</v>
       </c>
       <c r="D64">
-        <v>0.03734709478007246</v>
+        <v>-0.02465572116544748</v>
       </c>
       <c r="E64">
-        <v>-0.01515433090575615</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>-0.02849840872042854</v>
+      </c>
+      <c r="F64">
+        <v>-0.01900086026334798</v>
+      </c>
+      <c r="G64">
+        <v>0.03391933765392523</v>
+      </c>
+      <c r="H64">
+        <v>-0.1142542616739069</v>
+      </c>
+      <c r="I64">
+        <v>-0.06911337103008852</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>0.02635293619822147</v>
+        <v>0.02011185770486894</v>
       </c>
       <c r="C65">
-        <v>-0.01583255508044711</v>
+        <v>0.04080665901744795</v>
       </c>
       <c r="D65">
-        <v>0.1184953862765317</v>
+        <v>-0.1176240317163019</v>
       </c>
       <c r="E65">
-        <v>-0.00251366400396357</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>-0.04786060664374694</v>
+      </c>
+      <c r="F65">
+        <v>0.006284797039969318</v>
+      </c>
+      <c r="G65">
+        <v>0.0233995270497367</v>
+      </c>
+      <c r="H65">
+        <v>-0.04318231767739676</v>
+      </c>
+      <c r="I65">
+        <v>-0.01839225105917294</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>0.0230074619308967</v>
+        <v>0.0006814768504332307</v>
       </c>
       <c r="C66">
-        <v>-0.06319102309890597</v>
+        <v>0.08921216212351947</v>
       </c>
       <c r="D66">
-        <v>0.1211755822656914</v>
+        <v>-0.1247766275647584</v>
       </c>
       <c r="E66">
-        <v>0.0225382922938189</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>-0.04682102659173362</v>
+      </c>
+      <c r="F66">
+        <v>0.009280014685067797</v>
+      </c>
+      <c r="G66">
+        <v>-0.01964370081097219</v>
+      </c>
+      <c r="H66">
+        <v>-0.0624366123086262</v>
+      </c>
+      <c r="I66">
+        <v>-0.07292118064446547</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>0.0266386842112777</v>
+        <v>0.02304429749082524</v>
       </c>
       <c r="C67">
-        <v>-0.01733055489841333</v>
+        <v>0.02781781008323962</v>
       </c>
       <c r="D67">
-        <v>0.03898088877712873</v>
+        <v>-0.03271730969131728</v>
       </c>
       <c r="E67">
-        <v>0.01663258221166574</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>-0.008466187400893426</v>
+      </c>
+      <c r="F67">
+        <v>0.02467971566404969</v>
+      </c>
+      <c r="G67">
+        <v>-0.02466421488945053</v>
+      </c>
+      <c r="H67">
+        <v>-0.06031813698107127</v>
+      </c>
+      <c r="I67">
+        <v>0.02302663060823837</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>0.1956232483610318</v>
+        <v>0.2729886741819619</v>
       </c>
       <c r="C68">
-        <v>0.1699895933139972</v>
+        <v>-0.06494780793473882</v>
       </c>
       <c r="D68">
-        <v>0.03371187595669106</v>
+        <v>-0.03920694530214327</v>
       </c>
       <c r="E68">
-        <v>-0.01053988407360982</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>-0.002913857390357465</v>
+      </c>
+      <c r="F68">
+        <v>-0.021997659343511</v>
+      </c>
+      <c r="G68">
+        <v>-0.04662704953162457</v>
+      </c>
+      <c r="H68">
+        <v>0.06005297244804402</v>
+      </c>
+      <c r="I68">
+        <v>0.0963703062458544</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>0.06483941316765246</v>
+        <v>0.01750200402898219</v>
       </c>
       <c r="C69">
-        <v>-0.1129447885351263</v>
+        <v>0.1190413990440737</v>
       </c>
       <c r="D69">
-        <v>0.08306902093277256</v>
+        <v>-0.03532837591019489</v>
       </c>
       <c r="E69">
-        <v>-0.01458746043170552</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>-0.008421168543466515</v>
+      </c>
+      <c r="F69">
+        <v>0.009588679233135437</v>
+      </c>
+      <c r="G69">
+        <v>0.01696228049083687</v>
+      </c>
+      <c r="H69">
+        <v>-0.05065925362788123</v>
+      </c>
+      <c r="I69">
+        <v>0.08327407627836014</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,435 +2724,747 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>0.2000657165961151</v>
+        <v>0.2741147328396918</v>
       </c>
       <c r="C71">
-        <v>0.1909880243333553</v>
+        <v>-0.08177424709138223</v>
       </c>
       <c r="D71">
-        <v>0.02346327751808577</v>
+        <v>-0.0200031499557799</v>
       </c>
       <c r="E71">
-        <v>-0.01548472559125953</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>-0.002098580029125499</v>
+      </c>
+      <c r="F71">
+        <v>-0.02146929015248965</v>
+      </c>
+      <c r="G71">
+        <v>-0.03965356866082479</v>
+      </c>
+      <c r="H71">
+        <v>-0.01246602315054974</v>
+      </c>
+      <c r="I71">
+        <v>0.1490922478164691</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>0.1102611610644933</v>
+        <v>0.05559636504671502</v>
       </c>
       <c r="C72">
-        <v>-0.06636446708298141</v>
+        <v>0.1228511647100549</v>
       </c>
       <c r="D72">
-        <v>0.1030713167377201</v>
+        <v>-0.05946966357093858</v>
       </c>
       <c r="E72">
-        <v>0.05036065153796847</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>-0.07947073257312558</v>
+      </c>
+      <c r="F72">
+        <v>0.0310257979634185</v>
+      </c>
+      <c r="G72">
+        <v>0.02641027683299987</v>
+      </c>
+      <c r="H72">
+        <v>-0.05097346733683043</v>
+      </c>
+      <c r="I72">
+        <v>-0.07470234872083896</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>0.1788225208541738</v>
+        <v>0.1344371600236046</v>
       </c>
       <c r="C73">
-        <v>-0.05557598496823861</v>
+        <v>0.1427657521234347</v>
       </c>
       <c r="D73">
-        <v>0.2637590299522056</v>
+        <v>-0.09253387215938</v>
       </c>
       <c r="E73">
-        <v>0.2655725064330303</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>-0.2998609791230846</v>
+      </c>
+      <c r="F73">
+        <v>0.3301920524886195</v>
+      </c>
+      <c r="G73">
+        <v>0.4425365562390227</v>
+      </c>
+      <c r="H73">
+        <v>0.0589123444849111</v>
+      </c>
+      <c r="I73">
+        <v>-0.04243203255836518</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>0.1153730061670281</v>
+        <v>0.05070815510809313</v>
       </c>
       <c r="C74">
-        <v>-0.1102107207199527</v>
+        <v>0.1493385757290074</v>
       </c>
       <c r="D74">
-        <v>-0.01856586477258792</v>
+        <v>0.03720038587914315</v>
       </c>
       <c r="E74">
-        <v>-0.04203006326817926</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>0.01028217710766549</v>
+      </c>
+      <c r="F74">
+        <v>-0.03640813246349726</v>
+      </c>
+      <c r="G74">
+        <v>0.003922816196570263</v>
+      </c>
+      <c r="H74">
+        <v>0.01669730917516925</v>
+      </c>
+      <c r="I74">
+        <v>0.1009590993735641</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>0.2454804047068268</v>
+        <v>0.1126585945878973</v>
       </c>
       <c r="C75">
-        <v>-0.1864542010211412</v>
+        <v>0.2721854630704683</v>
       </c>
       <c r="D75">
-        <v>-0.108476309975852</v>
+        <v>0.1255120465046658</v>
       </c>
       <c r="E75">
-        <v>0.01908346140984928</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>0.09261628299525111</v>
+      </c>
+      <c r="F75">
+        <v>0.02214144604652942</v>
+      </c>
+      <c r="G75">
+        <v>-0.106738298863585</v>
+      </c>
+      <c r="H75">
+        <v>0.01603456966075935</v>
+      </c>
+      <c r="I75">
+        <v>0.07750664867325589</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>0.1474500698040468</v>
+        <v>0.06388440672034644</v>
       </c>
       <c r="C76">
-        <v>-0.1317527768071506</v>
+        <v>0.1847506685267572</v>
       </c>
       <c r="D76">
-        <v>0.01771874153964419</v>
+        <v>0.03070918840258288</v>
       </c>
       <c r="E76">
-        <v>-0.01020887285460338</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>0.02204925548799642</v>
+      </c>
+      <c r="F76">
+        <v>-0.006923618968111725</v>
+      </c>
+      <c r="G76">
+        <v>-0.04760763888786268</v>
+      </c>
+      <c r="H76">
+        <v>-0.0199532763572875</v>
+      </c>
+      <c r="I76">
+        <v>0.09442359927582275</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>0.01627632936095159</v>
+        <v>0.002097290026936757</v>
       </c>
       <c r="C77">
-        <v>-0.07362648342578786</v>
+        <v>0.09886481872389143</v>
       </c>
       <c r="D77">
-        <v>0.04378775699459125</v>
+        <v>-0.3468875651794743</v>
       </c>
       <c r="E77">
-        <v>-0.2121425539135257</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>0.8261145466503342</v>
+      </c>
+      <c r="F77">
+        <v>0.2345414409394711</v>
+      </c>
+      <c r="G77">
+        <v>0.2387843392290957</v>
+      </c>
+      <c r="H77">
+        <v>0.1008013919496002</v>
+      </c>
+      <c r="I77">
+        <v>0.03802536412091222</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>0.02903680593743416</v>
+        <v>0.01285095785076609</v>
       </c>
       <c r="C78">
-        <v>-0.06501366353163995</v>
+        <v>0.0859563403185238</v>
       </c>
       <c r="D78">
-        <v>0.1511255161929131</v>
+        <v>-0.1265700726200255</v>
       </c>
       <c r="E78">
-        <v>-0.04465232936525652</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>-0.07442101156002037</v>
+      </c>
+      <c r="F78">
+        <v>-0.04915426741452433</v>
+      </c>
+      <c r="G78">
+        <v>-0.03399990476231097</v>
+      </c>
+      <c r="H78">
+        <v>-0.018414665193919</v>
+      </c>
+      <c r="I78">
+        <v>0.09916015508812324</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B79">
-        <v>0.1015389784950043</v>
+        <v>0.03291074365158652</v>
       </c>
       <c r="C79">
-        <v>-0.1649406729664487</v>
+        <v>0.1881422718441004</v>
       </c>
       <c r="D79">
-        <v>-0.09085780176693892</v>
+        <v>0.06785527987828331</v>
       </c>
       <c r="E79">
-        <v>-0.8032212766164618</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>0.05740842486808945</v>
+      </c>
+      <c r="F79">
+        <v>-0.7694642702153807</v>
+      </c>
+      <c r="G79">
+        <v>0.4882623511527545</v>
+      </c>
+      <c r="H79">
+        <v>0.1746855138465819</v>
+      </c>
+      <c r="I79">
+        <v>-0.1318107622989001</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>0.007563793439912037</v>
+        <v>0.001844742122014086</v>
       </c>
       <c r="C80">
-        <v>-0.04591942743914681</v>
+        <v>0.04435645773794206</v>
       </c>
       <c r="D80">
-        <v>0.0497821448689663</v>
+        <v>-0.04039879492822462</v>
       </c>
       <c r="E80">
-        <v>0.006359834161467697</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>-0.03762784669107055</v>
+      </c>
+      <c r="F80">
+        <v>-0.007779705962312988</v>
+      </c>
+      <c r="G80">
+        <v>-0.02750845505283143</v>
+      </c>
+      <c r="H80">
+        <v>-0.01208044319960118</v>
+      </c>
+      <c r="I80">
+        <v>0.06663896107778478</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>0.1253204327469192</v>
+        <v>0.04443476061613845</v>
       </c>
       <c r="C81">
-        <v>-0.1266816941766889</v>
+        <v>0.1669315554783912</v>
       </c>
       <c r="D81">
-        <v>-0.07346903498027398</v>
+        <v>0.07694825020390199</v>
       </c>
       <c r="E81">
-        <v>-0.06681415514110151</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>0.05579647386636449</v>
+      </c>
+      <c r="F81">
+        <v>-0.06411288449510161</v>
+      </c>
+      <c r="G81">
+        <v>-0.06605160401052763</v>
+      </c>
+      <c r="H81">
+        <v>-0.05453531826127408</v>
+      </c>
+      <c r="I81">
+        <v>0.1217468875080266</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B82">
-        <v>0.2671640651344165</v>
+        <v>0.09537407933880621</v>
       </c>
       <c r="C82">
-        <v>-0.2827597076480325</v>
+        <v>0.3319747171828155</v>
       </c>
       <c r="D82">
-        <v>-0.2039455318865225</v>
+        <v>0.2213756350390512</v>
       </c>
       <c r="E82">
-        <v>0.1306393465389411</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>0.06381907975523909</v>
+      </c>
+      <c r="F82">
+        <v>0.104349076271625</v>
+      </c>
+      <c r="G82">
+        <v>-0.1186386133479987</v>
+      </c>
+      <c r="H82">
+        <v>-0.08310572448587571</v>
+      </c>
+      <c r="I82">
+        <v>0.05406718714858887</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>-0.004095212605614995</v>
+        <v>-0.01263181274802793</v>
       </c>
       <c r="C83">
-        <v>-0.05197643863517013</v>
+        <v>0.03060263072956394</v>
       </c>
       <c r="D83">
-        <v>0.01271339217482467</v>
+        <v>-0.03926269567546298</v>
       </c>
       <c r="E83">
-        <v>-0.05693720807513386</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>0.06734828782763301</v>
+      </c>
+      <c r="F83">
+        <v>-0.06253225674077567</v>
+      </c>
+      <c r="G83">
+        <v>-0.08047725704979694</v>
+      </c>
+      <c r="H83">
+        <v>-0.01734730457557129</v>
+      </c>
+      <c r="I83">
+        <v>0.4020014126494598</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B84">
-        <v>0.000836921172617681</v>
+        <v>-0.003469119375944268</v>
       </c>
       <c r="C84">
-        <v>0.001838423466640638</v>
+        <v>0.01719083284084618</v>
       </c>
       <c r="D84">
-        <v>0.004349482108510995</v>
+        <v>-0.04440240935643416</v>
       </c>
       <c r="E84">
-        <v>-0.0006159729524330564</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>-0.001932496950194423</v>
+      </c>
+      <c r="F84">
+        <v>-0.03004380160794808</v>
+      </c>
+      <c r="G84">
+        <v>-0.05450141518502084</v>
+      </c>
+      <c r="H84">
+        <v>-0.002957255654070286</v>
+      </c>
+      <c r="I84">
+        <v>-0.05179015768279928</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>0.1485928631785106</v>
+        <v>0.05908828179237236</v>
       </c>
       <c r="C85">
-        <v>-0.1318809637347664</v>
+        <v>0.1857485492050073</v>
       </c>
       <c r="D85">
-        <v>-0.04023513504623287</v>
+        <v>0.0871962635028123</v>
       </c>
       <c r="E85">
-        <v>-0.0293946936338338</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>-0.001254700418601179</v>
+      </c>
+      <c r="F85">
+        <v>-0.0743603391528222</v>
+      </c>
+      <c r="G85">
+        <v>-0.02134196408133271</v>
+      </c>
+      <c r="H85">
+        <v>0.01211725877612239</v>
+      </c>
+      <c r="I85">
+        <v>0.07553361772901893</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>0.01422180506388861</v>
+        <v>0.009715578455568879</v>
       </c>
       <c r="C86">
-        <v>-0.01126264606670016</v>
+        <v>0.03007991201210202</v>
       </c>
       <c r="D86">
-        <v>0.07592089084406646</v>
+        <v>-0.1036413986105393</v>
       </c>
       <c r="E86">
-        <v>-0.04952197922343349</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>0.01903337790549675</v>
+      </c>
+      <c r="F86">
+        <v>-0.001938924700327091</v>
+      </c>
+      <c r="G86">
+        <v>0.006144770689351737</v>
+      </c>
+      <c r="H86">
+        <v>-0.02634466423302214</v>
+      </c>
+      <c r="I86">
+        <v>0.0903387554017735</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>0.01767490338687977</v>
+        <v>0.008014551326784507</v>
       </c>
       <c r="C87">
-        <v>-0.02636562486785504</v>
+        <v>0.05380164024022729</v>
       </c>
       <c r="D87">
-        <v>0.1330073017909538</v>
+        <v>-0.1438488332197425</v>
       </c>
       <c r="E87">
-        <v>-0.04955203360574476</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>-0.0178980946847861</v>
+      </c>
+      <c r="F87">
+        <v>-0.04654339797339288</v>
+      </c>
+      <c r="G87">
+        <v>-0.06182100095323005</v>
+      </c>
+      <c r="H87">
+        <v>-0.0145916109257848</v>
+      </c>
+      <c r="I87">
+        <v>-0.02132942715270489</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>0.05921211262327894</v>
+        <v>0.02975041819702115</v>
       </c>
       <c r="C88">
-        <v>-0.0443290878254451</v>
+        <v>0.06811048333680708</v>
       </c>
       <c r="D88">
-        <v>0.02819828942693271</v>
+        <v>-0.004766509712630841</v>
       </c>
       <c r="E88">
-        <v>-0.02980868518605809</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>-0.01589940408834961</v>
+      </c>
+      <c r="F88">
+        <v>-0.01848124854358248</v>
+      </c>
+      <c r="G88">
+        <v>-0.002113540494465743</v>
+      </c>
+      <c r="H88">
+        <v>-0.01909134855408949</v>
+      </c>
+      <c r="I88">
+        <v>0.02354725452148589</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>0.3013923166288741</v>
+        <v>0.4086856522699827</v>
       </c>
       <c r="C89">
-        <v>0.3483031279827085</v>
+        <v>-0.1575796253821055</v>
       </c>
       <c r="D89">
-        <v>0.01441255691624311</v>
+        <v>-0.03309061876028395</v>
       </c>
       <c r="E89">
-        <v>-0.0947662913075235</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>0.04879587643676147</v>
+      </c>
+      <c r="F89">
+        <v>-0.0713918151537441</v>
+      </c>
+      <c r="G89">
+        <v>-0.04261376629428301</v>
+      </c>
+      <c r="H89">
+        <v>-0.1009946372744916</v>
+      </c>
+      <c r="I89">
+        <v>-0.2819424950181733</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>0.2408730333535501</v>
+        <v>0.3190984762504105</v>
       </c>
       <c r="C90">
-        <v>0.2560354218484643</v>
+        <v>-0.1079770522928868</v>
       </c>
       <c r="D90">
-        <v>0.03548112568989172</v>
+        <v>-0.03359983292723963</v>
       </c>
       <c r="E90">
-        <v>0.006386798374600128</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>0.005938082092594915</v>
+      </c>
+      <c r="F90">
+        <v>0.006706973994484385</v>
+      </c>
+      <c r="G90">
+        <v>-0.06459193906379707</v>
+      </c>
+      <c r="H90">
+        <v>0.03046862790064113</v>
+      </c>
+      <c r="I90">
+        <v>0.08239169073235435</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>0.1644277733944815</v>
+        <v>0.06803443750290794</v>
       </c>
       <c r="C91">
-        <v>-0.1794695966700912</v>
+        <v>0.2139781216900859</v>
       </c>
       <c r="D91">
-        <v>-0.09490765395159564</v>
+        <v>0.1016082423726529</v>
       </c>
       <c r="E91">
-        <v>-0.09590877526699647</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>0.06419887300951736</v>
+      </c>
+      <c r="F91">
+        <v>-0.07179347983899266</v>
+      </c>
+      <c r="G91">
+        <v>-0.006416666263987461</v>
+      </c>
+      <c r="H91">
+        <v>0.001493976899780346</v>
+      </c>
+      <c r="I91">
+        <v>0.1090505410533987</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>0.2253175312712661</v>
+        <v>0.3400660824267852</v>
       </c>
       <c r="C92">
-        <v>0.2718800358356429</v>
+        <v>-0.1404725622641443</v>
       </c>
       <c r="D92">
-        <v>-0.05307144038191794</v>
+        <v>-0.00169101383756242</v>
       </c>
       <c r="E92">
-        <v>-0.05231399484592267</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>0.06623636935948002</v>
+      </c>
+      <c r="F92">
+        <v>-0.03179323827479711</v>
+      </c>
+      <c r="G92">
+        <v>-0.03159145410317175</v>
+      </c>
+      <c r="H92">
+        <v>-0.02809244214506737</v>
+      </c>
+      <c r="I92">
+        <v>-0.2257572493764373</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>0.2655932720920143</v>
+        <v>0.336268677978295</v>
       </c>
       <c r="C93">
-        <v>0.2676759413764715</v>
+        <v>-0.113648912740596</v>
       </c>
       <c r="D93">
-        <v>0.01423753613044776</v>
+        <v>0.01699818446620761</v>
       </c>
       <c r="E93">
-        <v>-0.004505284178522155</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>-0.02645914045476294</v>
+      </c>
+      <c r="F93">
+        <v>-0.007581738776698731</v>
+      </c>
+      <c r="G93">
+        <v>0.01875374485174207</v>
+      </c>
+      <c r="H93">
+        <v>-0.003135549371873388</v>
+      </c>
+      <c r="I93">
+        <v>0.06918484030615255</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>0.3118348516855491</v>
+        <v>0.1353636452961123</v>
       </c>
       <c r="C94">
-        <v>-0.2547184727529151</v>
+        <v>0.3651108909260898</v>
       </c>
       <c r="D94">
-        <v>-0.3572685787308596</v>
+        <v>0.3338169266620532</v>
       </c>
       <c r="E94">
-        <v>0.1990286159854461</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>0.06854185848258784</v>
+      </c>
+      <c r="F94">
+        <v>0.09498146698153315</v>
+      </c>
+      <c r="G94">
+        <v>-0.2898472943140876</v>
+      </c>
+      <c r="H94">
+        <v>0.1157997769937808</v>
+      </c>
+      <c r="I94">
+        <v>-0.3722178452671524</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>0.01693977656053124</v>
+        <v>0.01720778738161305</v>
       </c>
       <c r="C95">
-        <v>-0.03574707899630352</v>
+        <v>0.06040407698420323</v>
       </c>
       <c r="D95">
-        <v>0.03653756190551084</v>
+        <v>-0.1116026068714221</v>
       </c>
       <c r="E95">
-        <v>-0.08541790408026544</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>0.1576601643653616</v>
+      </c>
+      <c r="F95">
+        <v>0.02389927059107752</v>
+      </c>
+      <c r="G95">
+        <v>0.01112874668456386</v>
+      </c>
+      <c r="H95">
+        <v>-0.4217590645042579</v>
+      </c>
+      <c r="I95">
+        <v>-0.4366138198365889</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,44 +3478,80 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>0.0008791432847891982</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>0.0005367515986397897</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>-0.0005684297058151332</v>
       </c>
       <c r="E97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>-0.003331720208734873</v>
+      </c>
+      <c r="F97">
+        <v>0.0003993150361720814</v>
+      </c>
+      <c r="G97">
+        <v>-0.0002808732810197818</v>
+      </c>
+      <c r="H97">
+        <v>-0.003071744624351562</v>
+      </c>
+      <c r="I97">
+        <v>-0.002289112464788733</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>0.1517225437325849</v>
+        <v>0.1116892421788841</v>
       </c>
       <c r="C98">
-        <v>-0.07396456682701084</v>
+        <v>0.1449008366343317</v>
       </c>
       <c r="D98">
-        <v>0.1470491415051662</v>
+        <v>-0.05816403193690358</v>
       </c>
       <c r="E98">
-        <v>0.198424366733406</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>-0.2056520815582329</v>
+      </c>
+      <c r="F98">
+        <v>0.242206508017171</v>
+      </c>
+      <c r="G98">
+        <v>0.302743507490323</v>
+      </c>
+      <c r="H98">
+        <v>0.1087641691971193</v>
+      </c>
+      <c r="I98">
+        <v>-0.0194757393990129</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +3565,22 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,44 +3594,80 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>0.000570511459734027</v>
+        <v>-0.002281215482105631</v>
       </c>
       <c r="C101">
-        <v>-0.02046114218231142</v>
+        <v>0.02865432336361596</v>
       </c>
       <c r="D101">
-        <v>0.0969548808095792</v>
+        <v>-0.09440606264088754</v>
       </c>
       <c r="E101">
-        <v>-0.01557888232265211</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>-0.05714838308093284</v>
+      </c>
+      <c r="F101">
+        <v>-0.03915184645011838</v>
+      </c>
+      <c r="G101">
+        <v>-0.02819873700549818</v>
+      </c>
+      <c r="H101">
+        <v>-0.1314858162521907</v>
+      </c>
+      <c r="I101">
+        <v>0.01260699538133241</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>0.1149758425944232</v>
+        <v>0.03229794240873686</v>
       </c>
       <c r="C102">
-        <v>-0.1499915664845055</v>
+        <v>0.1532565350034343</v>
       </c>
       <c r="D102">
-        <v>-0.06668000661343308</v>
+        <v>0.08883168104756205</v>
       </c>
       <c r="E102">
-        <v>0.04701923189178533</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>0.03771965954764391</v>
+      </c>
+      <c r="F102">
+        <v>0.06008942675228841</v>
+      </c>
+      <c r="G102">
+        <v>-0.009573094054492713</v>
+      </c>
+      <c r="H102">
+        <v>-0.0572297094868716</v>
+      </c>
+      <c r="I102">
+        <v>0.02745668250710315</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2445,10 +3681,22 @@
       <c r="E103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2460,6 +3708,18 @@
         <v>0</v>
       </c>
       <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
